--- a/biology/Zoologie/Taphaeus_verus/Taphaeus_verus.xlsx
+++ b/biology/Zoologie/Taphaeus_verus/Taphaeus_verus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diospilus verus
 Taphaeus verus est une espèce fossile  d'insectes hyménoptères de la famille des Braconidae.
@@ -512,15 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Taphaeus verus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le protonyme Diospilus verus[1],[2]. 
-Fossiles
-Le spécimen holotype Am23 vient de la collection du muséum national d'histoire naturelle de Paris[3]. Cet insecte vient du gypse d'Aix-en-Provence[1].
-Étymologie
-L'épithète spécifique verus signifie en latin « vrai ».
-Renommage
-Cette espèce est renommée Taphaeus verus en 2014 par l'entomologiste polonais Sergey A. Belokobylskij (d) (1958-) [4],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Taphaeus verus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le protonyme Diospilus verus,. 
 </t>
         </is>
       </c>
@@ -546,18 +554,205 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen holotype Am23 vient de la collection du muséum national d'histoire naturelle de Paris. Cet insecte vient du gypse d'Aix-en-Provence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Taphaeus_verus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Taphaeus_verus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique verus signifie en latin « vrai ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Taphaeus_verus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Taphaeus_verus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est renommée Taphaeus verus en 2014 par l'entomologiste polonais Sergey A. Belokobylskij (d) (1958-) ,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Taphaeus_verus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Taphaeus_verus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald de 1937[1],[note 1] : 
-« Petit insecte à tête et thorax noirs, abdomen brun, ailes transparentes. Tête transversale portant deux gros yeux arrondis ; antennes multiarticulées, 19 articles cylindriques ; longueur des antennes dépasse celle du corps. Thorax ovale ; abdomen sessile, six segments, le premier allongé ; abdomen arrondi à l'extrémité. Pattes grêles, brunes, finement poilues. Ailes transparentes, stigma oblong, émettant le nervure radiale un peu au-delà du milieu ; deux cellules cubitales ; la première cellule cubitale reçoit la nervure récurrente vers sa base ; le deuxième cellule cubitale est plus petite que la première ; cellule médiane plus longue que cellule costale (v. fig.). »[1].
-Dimensions
-La longueur totale est de 2,1 mm, la longueur de l'aile est de 2 mm[1].
-Affinités
-« La forme de l'abdomen et la disposition des nervures, la première cellule discoïdale contigüe au parastigma sont assez caractéristiques pour ranger cet échantillon dans le genre Diospilus. »[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diagnose de Nicolas Théobald de 1937,[note 1] : 
+« Petit insecte à tête et thorax noirs, abdomen brun, ailes transparentes. Tête transversale portant deux gros yeux arrondis ; antennes multiarticulées, 19 articles cylindriques ; longueur des antennes dépasse celle du corps. Thorax ovale ; abdomen sessile, six segments, le premier allongé ; abdomen arrondi à l'extrémité. Pattes grêles, brunes, finement poilues. Ailes transparentes, stigma oblong, émettant le nervure radiale un peu au-delà du milieu ; deux cellules cubitales ; la première cellule cubitale reçoit la nervure récurrente vers sa base ; le deuxième cellule cubitale est plus petite que la première ; cellule médiane plus longue que cellule costale (v. fig.). ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Taphaeus_verus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Taphaeus_verus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 2,1 mm, la longueur de l'aile est de 2 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Taphaeus_verus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Taphaeus_verus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« La forme de l'abdomen et la disposition des nervures, la première cellule discoïdale contigüe au parastigma sont assez caractéristiques pour ranger cet échantillon dans le genre Diospilus. ».
 </t>
         </is>
       </c>
